--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -15,22 +15,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0：用户名+口令（默认方式）
+1：AD域认证
+2：AD域认证加口令
+3：radius动态令牌
+4：radius动态令牌+口令
+5：数字证书
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>simper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不存在账号或口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新添加的用户和口令能够正常登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +124,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -78,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,13 +168,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,11 +195,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,137 +507,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,27 +71,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时输入不存在账号或口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入不存在账号或口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入新添加的用户和口令能够正常登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,19 +116,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,7 +139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,10 +197,10 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,192 +509,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -716,7 +717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,7 +731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -47,34 +47,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,15 +91,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登陆时输入初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误</t>
+    <t>账号或口令错误1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,9 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -522,31 +520,31 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -554,14 +552,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -569,7 +567,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -578,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -47,51 +47,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时输入不存在账号或口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时输入初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isomper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆时输入初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆时输入新添加的用户和口令能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录时输入不存在账号或口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误1</t>
+    <t>账号或口令错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,31 +520,31 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -552,14 +552,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>

--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
     <sheet name="cert" sheetId="5" r:id="rId5"/>
+    <sheet name="add_user" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>登陆方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,158 +62,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定AD认证方式的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有绑定radius认证的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号和密码均为空的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装证书的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令为空校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误域口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写错误radius口令的校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定AD域认证方式的用户能够正常登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADlogin_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADcheckout_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_radiuscheckout_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ADPwdlogin_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_certLogin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新添加的用户能够正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处于锁定状态的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的用户无法登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写账号校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已锁定，请找管理员解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写密码校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令不能为空！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accountlock_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_ineffective _003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_checkout_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccccccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第一次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问失败次数达到最大(第二次登录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F01_accessTimes_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩1次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或口令错误，您还剩2次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有绑定AD认证方式的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有绑定radius认证的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号和密码均为空的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装证书的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令为空校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误域口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写错误radius口令的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域+口令认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定AD域认证方式的用户能够正常登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADlogin_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADcheckout_009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_radiuscheckout_010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ADPwdlogin_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_certLogin_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新添加的用户能够正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于锁定状态的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号未生效的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已过期的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在的用户无法登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写账号校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号已锁定，请找管理员解锁</t>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD域账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,127 +357,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号或口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填写密码校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令不能为空！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accountlock_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_ineffective _003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_outOfDate_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_checkout_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第一次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问失败次数达到最大(第二次登录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F01_accessTimes_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩1次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或口令错误，您还剩2次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
+    <t>2020-09-08 17:21:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -874,255 +899,243 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1111</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1111</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1111</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>78</v>
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
@@ -1179,14 +1192,6 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,7 +1205,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1233,26 +1238,26 @@
         <v>6</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1451,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1486,19 +1491,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1507,18 +1512,18 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1528,44 +1533,44 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1574,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1597,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1620,75 +1625,75 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1707,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1732,12 +1737,12 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1749,7 +1754,271 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
